--- a/Code/Gist_Links.xlsx
+++ b/Code/Gist_Links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DAYS</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>https://gist.github.com/SaiSuvamPatnaik/4ac71e7f3d2052b7d22fb219e79985b2</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/SaiSuvamPatnaik/664587e1706ba50c6004b3c911f2dd5a</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,6 +418,9 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -559,8 +565,9 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Code/Gist_Links.xlsx
+++ b/Code/Gist_Links.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>DAYS</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>https://gist.github.com/SaiSuvamPatnaik/664587e1706ba50c6004b3c911f2dd5a</t>
+  </si>
+  <si>
+    <t>https://gist.github.com/SaiSuvamPatnaik/6b06a6d50d7944d05b8fa4dfa04f1562</t>
   </si>
 </sst>
 </file>
@@ -390,7 +393,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,6 +429,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -566,8 +572,9 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>